--- a/realme/Others/realme C15(128) Adju 18.01.2021 natore.xlsx
+++ b/realme/Others/realme C15(128) Adju 18.01.2021 natore.xlsx
@@ -206,7 +206,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -221,15 +221,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -247,13 +238,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -562,14 +571,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F237"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
@@ -578,50 +587,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="19.5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" ht="19.5">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="17.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -629,10 +638,10 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>863909050482619</v>
       </c>
       <c r="D5" s="5"/>
@@ -645,10 +654,10 @@
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="7">
         <v>863909050601895</v>
       </c>
       <c r="D6" s="5"/>
@@ -661,10 +670,10 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <v>863909050461811</v>
       </c>
       <c r="D7" s="5"/>
@@ -677,10 +686,10 @@
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="7">
         <v>863909050483252</v>
       </c>
       <c r="D8" s="5"/>
@@ -693,10 +702,10 @@
       <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="7">
         <v>863909050483831</v>
       </c>
       <c r="D9" s="5"/>
@@ -709,10 +718,10 @@
       <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="7">
         <v>863909051036257</v>
       </c>
       <c r="D10" s="5"/>
@@ -725,10 +734,10 @@
       <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="7">
         <v>863909050603354</v>
       </c>
       <c r="D11" s="5"/>
@@ -741,10 +750,10 @@
       <c r="A12" s="5">
         <v>8</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="7">
         <v>863909051707972</v>
       </c>
       <c r="D12" s="5"/>
@@ -757,10 +766,10 @@
       <c r="A13" s="5">
         <v>9</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="7">
         <v>863909050600871</v>
       </c>
       <c r="D13" s="5"/>
@@ -773,10 +782,10 @@
       <c r="A14" s="5">
         <v>10</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="7">
         <v>863909050997954</v>
       </c>
       <c r="D14" s="5"/>
@@ -789,10 +798,10 @@
       <c r="A15" s="5">
         <v>11</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="7">
         <v>863909050987013</v>
       </c>
       <c r="D15" s="5"/>
@@ -805,10 +814,10 @@
       <c r="A16" s="5">
         <v>12</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="7">
         <v>863909051006532</v>
       </c>
       <c r="D16" s="5"/>
@@ -821,10 +830,10 @@
       <c r="A17" s="5">
         <v>13</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="7">
         <v>863909050484813</v>
       </c>
       <c r="D17" s="5"/>
@@ -837,10 +846,10 @@
       <c r="A18" s="5">
         <v>14</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="7">
         <v>863909051664611</v>
       </c>
       <c r="D18" s="5"/>
@@ -853,10 +862,10 @@
       <c r="A19" s="5">
         <v>15</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="7">
         <v>863909050486271</v>
       </c>
       <c r="D19" s="5"/>
@@ -869,10 +878,10 @@
       <c r="A20" s="5">
         <v>16</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="7">
         <v>863909051094314</v>
       </c>
       <c r="D20" s="5"/>
@@ -885,10 +894,10 @@
       <c r="A21" s="5">
         <v>17</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="7">
         <v>863909051662235</v>
       </c>
       <c r="D21" s="5"/>
@@ -901,10 +910,10 @@
       <c r="A22" s="5">
         <v>18</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="7">
         <v>863909051664538</v>
       </c>
       <c r="D22" s="5"/>
@@ -917,10 +926,10 @@
       <c r="A23" s="5">
         <v>19</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="7">
         <v>863909050484193</v>
       </c>
       <c r="D23" s="5"/>
@@ -933,10 +942,10 @@
       <c r="A24" s="5">
         <v>20</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="7">
         <v>863909050481157</v>
       </c>
       <c r="D24" s="5"/>
@@ -949,10 +958,10 @@
       <c r="A25" s="5">
         <v>21</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="7">
         <v>863909050485893</v>
       </c>
       <c r="D25" s="5"/>
@@ -965,10 +974,10 @@
       <c r="A26" s="5">
         <v>22</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="7">
         <v>863909050481256</v>
       </c>
       <c r="D26" s="5"/>
@@ -981,10 +990,10 @@
       <c r="A27" s="5">
         <v>23</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="7">
         <v>863909050993490</v>
       </c>
       <c r="D27" s="5"/>
@@ -997,10 +1006,10 @@
       <c r="A28" s="5">
         <v>24</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="7">
         <v>863909051709051</v>
       </c>
       <c r="D28" s="5"/>
@@ -1013,10 +1022,10 @@
       <c r="A29" s="5">
         <v>25</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="7">
         <v>863909050603370</v>
       </c>
       <c r="D29" s="5"/>
@@ -1029,10 +1038,10 @@
       <c r="A30" s="5">
         <v>26</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="7">
         <v>863909050603412</v>
       </c>
       <c r="D30" s="5"/>
@@ -1045,10 +1054,10 @@
       <c r="A31" s="5">
         <v>27</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="7">
         <v>863909050983533</v>
       </c>
       <c r="D31" s="5"/>
@@ -1061,10 +1070,10 @@
       <c r="A32" s="5">
         <v>28</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="7">
         <v>863909050606977</v>
       </c>
       <c r="D32" s="5"/>
@@ -1077,10 +1086,10 @@
       <c r="A33" s="5">
         <v>29</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="7">
         <v>863909050993458</v>
       </c>
       <c r="D33" s="5"/>
@@ -1093,10 +1102,10 @@
       <c r="A34" s="5">
         <v>30</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="7">
         <v>863909050600764</v>
       </c>
       <c r="D34" s="5"/>
@@ -1109,26 +1118,26 @@
       <c r="A35" s="5">
         <v>31</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="18">
         <v>863909050993730</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5">
-        <v>450</v>
-      </c>
-      <c r="F35" s="5"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19">
+        <v>450</v>
+      </c>
+      <c r="F35" s="19"/>
     </row>
     <row r="36" spans="1:6" ht="24.95" customHeight="1">
       <c r="A36" s="5">
         <v>32</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="7">
         <v>863909051708236</v>
       </c>
       <c r="D36" s="5"/>
@@ -1141,10 +1150,10 @@
       <c r="A37" s="5">
         <v>33</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="7">
         <v>863909050033792</v>
       </c>
       <c r="D37" s="5"/>
@@ -1157,10 +1166,10 @@
       <c r="A38" s="5">
         <v>34</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="7">
         <v>863909050033735</v>
       </c>
       <c r="D38" s="5"/>
@@ -1173,10 +1182,10 @@
       <c r="A39" s="5">
         <v>35</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="7">
         <v>863909050030939</v>
       </c>
       <c r="D39" s="5"/>
@@ -1189,10 +1198,10 @@
       <c r="A40" s="5">
         <v>36</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="7">
         <v>863909050485737</v>
       </c>
       <c r="D40" s="5"/>
@@ -1205,10 +1214,10 @@
       <c r="A41" s="5">
         <v>37</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="7">
         <v>863909051708376</v>
       </c>
       <c r="D41" s="5"/>
@@ -1221,10 +1230,10 @@
       <c r="A42" s="5">
         <v>38</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="7">
         <v>863909050031150</v>
       </c>
       <c r="D42" s="5"/>
@@ -1237,10 +1246,10 @@
       <c r="A43" s="5">
         <v>39</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="7">
         <v>863909050607033</v>
       </c>
       <c r="D43" s="5"/>
@@ -1253,10 +1262,10 @@
       <c r="A44" s="5">
         <v>40</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="7">
         <v>863909051010658</v>
       </c>
       <c r="D44" s="5"/>
@@ -1269,10 +1278,10 @@
       <c r="A45" s="5">
         <v>41</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="7">
         <v>863909051708939</v>
       </c>
       <c r="D45" s="5"/>
@@ -1285,10 +1294,10 @@
       <c r="A46" s="5">
         <v>42</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="7">
         <v>863909051707295</v>
       </c>
       <c r="D46" s="5"/>
@@ -1301,10 +1310,10 @@
       <c r="A47" s="5">
         <v>43</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="7">
         <v>863909051663878</v>
       </c>
       <c r="D47" s="5"/>
@@ -1317,10 +1326,10 @@
       <c r="A48" s="5">
         <v>44</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="7">
         <v>863909050985918</v>
       </c>
       <c r="D48" s="5"/>
@@ -1333,10 +1342,10 @@
       <c r="A49" s="5">
         <v>45</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="7">
         <v>863909050605797</v>
       </c>
       <c r="D49" s="5"/>
@@ -1349,10 +1358,10 @@
       <c r="A50" s="5">
         <v>46</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="7">
         <v>863909050484177</v>
       </c>
       <c r="D50" s="5"/>
@@ -1365,10 +1374,10 @@
       <c r="A51" s="5">
         <v>47</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="7">
         <v>863909051010351</v>
       </c>
       <c r="D51" s="5"/>
@@ -1381,10 +1390,10 @@
       <c r="A52" s="5">
         <v>48</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="7">
         <v>863909051664553</v>
       </c>
       <c r="D52" s="5"/>
@@ -1397,10 +1406,10 @@
       <c r="A53" s="5">
         <v>49</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="7">
         <v>863909050815115</v>
       </c>
       <c r="D53" s="5"/>
@@ -1413,10 +1422,10 @@
       <c r="A54" s="5">
         <v>50</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="7">
         <v>863909051664355</v>
       </c>
       <c r="D54" s="5"/>
@@ -1429,10 +1438,10 @@
       <c r="A55" s="5">
         <v>51</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="7">
         <v>863909050477643</v>
       </c>
       <c r="D55" s="5"/>
@@ -1445,10 +1454,10 @@
       <c r="A56" s="5">
         <v>52</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C56" s="7">
         <v>863909051708772</v>
       </c>
       <c r="D56" s="5"/>
@@ -1461,10 +1470,10 @@
       <c r="A57" s="5">
         <v>53</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="7">
         <v>863909051664637</v>
       </c>
       <c r="D57" s="5"/>
@@ -1474,733 +1483,733 @@
       <c r="F57" s="5"/>
     </row>
     <row r="58" spans="1:6" ht="19.5">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="16">
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="12">
         <f>SUM(E5:E57)</f>
         <v>23850</v>
       </c>
-      <c r="F58" s="15"/>
+      <c r="F58" s="11"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="B59" s="12"/>
+      <c r="B59" s="9"/>
       <c r="C59" s="1"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="B60" s="12"/>
+      <c r="B60" s="9"/>
       <c r="C60" s="1"/>
       <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="B61" s="12"/>
+      <c r="B61" s="9"/>
       <c r="C61" s="1"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="B62" s="12"/>
+      <c r="B62" s="9"/>
       <c r="C62" s="1"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="B63" s="12"/>
+      <c r="B63" s="9"/>
       <c r="C63" s="1"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="B64" s="12"/>
+      <c r="B64" s="9"/>
       <c r="C64" s="1"/>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="12"/>
+      <c r="B65" s="9"/>
       <c r="C65" s="1"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="12"/>
+      <c r="B66" s="9"/>
       <c r="C66" s="1"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="12"/>
+      <c r="B67" s="9"/>
       <c r="C67" s="1"/>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="12"/>
+      <c r="B68" s="9"/>
       <c r="C68" s="1"/>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="12"/>
+      <c r="B69" s="9"/>
       <c r="C69" s="1"/>
     </row>
     <row r="70" spans="2:3">
-      <c r="B70" s="12"/>
+      <c r="B70" s="9"/>
       <c r="C70" s="1"/>
     </row>
     <row r="71" spans="2:3">
-      <c r="B71" s="12"/>
+      <c r="B71" s="9"/>
       <c r="C71" s="1"/>
     </row>
     <row r="72" spans="2:3">
-      <c r="B72" s="12"/>
+      <c r="B72" s="9"/>
       <c r="C72" s="1"/>
     </row>
     <row r="73" spans="2:3">
-      <c r="B73" s="12"/>
+      <c r="B73" s="9"/>
       <c r="C73" s="1"/>
     </row>
     <row r="74" spans="2:3">
-      <c r="B74" s="12"/>
+      <c r="B74" s="9"/>
       <c r="C74" s="1"/>
     </row>
     <row r="75" spans="2:3">
-      <c r="B75" s="12"/>
+      <c r="B75" s="9"/>
       <c r="C75" s="1"/>
     </row>
     <row r="76" spans="2:3">
-      <c r="B76" s="12"/>
+      <c r="B76" s="9"/>
       <c r="C76" s="1"/>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="12"/>
+      <c r="B77" s="9"/>
       <c r="C77" s="1"/>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="12"/>
+      <c r="B78" s="9"/>
       <c r="C78" s="1"/>
     </row>
     <row r="79" spans="2:3">
-      <c r="B79" s="12"/>
+      <c r="B79" s="9"/>
       <c r="C79" s="3"/>
     </row>
     <row r="80" spans="2:3">
-      <c r="B80" s="12"/>
+      <c r="B80" s="9"/>
       <c r="C80" s="1"/>
     </row>
     <row r="81" spans="2:3">
-      <c r="B81" s="12"/>
+      <c r="B81" s="9"/>
       <c r="C81" s="1"/>
     </row>
     <row r="82" spans="2:3">
-      <c r="B82" s="12"/>
+      <c r="B82" s="9"/>
       <c r="C82" s="1"/>
     </row>
     <row r="83" spans="2:3">
-      <c r="B83" s="12"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="1"/>
     </row>
     <row r="84" spans="2:3">
-      <c r="B84" s="12"/>
+      <c r="B84" s="9"/>
       <c r="C84" s="1"/>
     </row>
     <row r="85" spans="2:3">
-      <c r="B85" s="12"/>
+      <c r="B85" s="9"/>
       <c r="C85" s="1"/>
     </row>
     <row r="86" spans="2:3">
-      <c r="B86" s="12"/>
+      <c r="B86" s="9"/>
       <c r="C86" s="1"/>
     </row>
     <row r="87" spans="2:3">
-      <c r="B87" s="12"/>
+      <c r="B87" s="9"/>
       <c r="C87" s="1"/>
     </row>
     <row r="88" spans="2:3">
-      <c r="B88" s="12"/>
+      <c r="B88" s="9"/>
       <c r="C88" s="1"/>
     </row>
     <row r="89" spans="2:3">
-      <c r="B89" s="12"/>
+      <c r="B89" s="9"/>
       <c r="C89" s="1"/>
     </row>
     <row r="90" spans="2:3">
-      <c r="B90" s="12"/>
+      <c r="B90" s="9"/>
       <c r="C90" s="1"/>
     </row>
     <row r="91" spans="2:3">
-      <c r="B91" s="12"/>
+      <c r="B91" s="9"/>
       <c r="C91" s="1"/>
     </row>
     <row r="92" spans="2:3">
-      <c r="B92" s="12"/>
+      <c r="B92" s="9"/>
       <c r="C92" s="1"/>
     </row>
     <row r="93" spans="2:3">
-      <c r="B93" s="12"/>
+      <c r="B93" s="9"/>
       <c r="C93" s="1"/>
     </row>
     <row r="94" spans="2:3">
-      <c r="B94" s="12"/>
+      <c r="B94" s="9"/>
       <c r="C94" s="1"/>
     </row>
     <row r="95" spans="2:3">
-      <c r="B95" s="12"/>
+      <c r="B95" s="9"/>
       <c r="C95" s="1"/>
     </row>
     <row r="96" spans="2:3">
-      <c r="B96" s="12"/>
+      <c r="B96" s="9"/>
       <c r="C96" s="1"/>
     </row>
     <row r="97" spans="2:3">
-      <c r="B97" s="12"/>
+      <c r="B97" s="9"/>
       <c r="C97" s="1"/>
     </row>
     <row r="98" spans="2:3">
-      <c r="B98" s="12"/>
+      <c r="B98" s="9"/>
       <c r="C98" s="1"/>
     </row>
     <row r="99" spans="2:3">
-      <c r="B99" s="12"/>
+      <c r="B99" s="9"/>
       <c r="C99" s="1"/>
     </row>
     <row r="100" spans="2:3">
-      <c r="B100" s="12"/>
+      <c r="B100" s="9"/>
       <c r="C100" s="1"/>
     </row>
     <row r="101" spans="2:3">
-      <c r="B101" s="12"/>
+      <c r="B101" s="9"/>
       <c r="C101" s="1"/>
     </row>
     <row r="102" spans="2:3">
-      <c r="B102" s="12"/>
+      <c r="B102" s="9"/>
       <c r="C102" s="1"/>
     </row>
     <row r="103" spans="2:3">
-      <c r="B103" s="12"/>
+      <c r="B103" s="9"/>
       <c r="C103" s="1"/>
     </row>
     <row r="104" spans="2:3">
-      <c r="B104" s="12"/>
+      <c r="B104" s="9"/>
       <c r="C104" s="1"/>
     </row>
     <row r="105" spans="2:3">
-      <c r="B105" s="12"/>
+      <c r="B105" s="9"/>
       <c r="C105" s="1"/>
     </row>
     <row r="106" spans="2:3">
-      <c r="B106" s="12"/>
+      <c r="B106" s="9"/>
       <c r="C106" s="1"/>
     </row>
     <row r="107" spans="2:3">
-      <c r="B107" s="12"/>
+      <c r="B107" s="9"/>
       <c r="C107" s="1"/>
     </row>
     <row r="108" spans="2:3">
-      <c r="B108" s="12"/>
+      <c r="B108" s="9"/>
       <c r="C108" s="1"/>
     </row>
     <row r="109" spans="2:3">
-      <c r="B109" s="12"/>
+      <c r="B109" s="9"/>
       <c r="C109" s="1"/>
     </row>
     <row r="110" spans="2:3">
-      <c r="B110" s="12"/>
+      <c r="B110" s="9"/>
       <c r="C110" s="1"/>
     </row>
     <row r="111" spans="2:3">
-      <c r="B111" s="12"/>
+      <c r="B111" s="9"/>
       <c r="C111" s="1"/>
     </row>
     <row r="112" spans="2:3">
-      <c r="B112" s="12"/>
+      <c r="B112" s="9"/>
       <c r="C112" s="1"/>
     </row>
     <row r="113" spans="2:3">
-      <c r="B113" s="12"/>
+      <c r="B113" s="9"/>
       <c r="C113" s="1"/>
     </row>
     <row r="114" spans="2:3">
-      <c r="B114" s="12"/>
+      <c r="B114" s="9"/>
       <c r="C114" s="1"/>
     </row>
     <row r="115" spans="2:3">
-      <c r="B115" s="12"/>
+      <c r="B115" s="9"/>
       <c r="C115" s="1"/>
     </row>
     <row r="116" spans="2:3">
-      <c r="B116" s="12"/>
+      <c r="B116" s="9"/>
       <c r="C116" s="1"/>
     </row>
     <row r="117" spans="2:3">
-      <c r="B117" s="12"/>
+      <c r="B117" s="9"/>
       <c r="C117" s="1"/>
     </row>
     <row r="118" spans="2:3">
-      <c r="B118" s="12"/>
+      <c r="B118" s="9"/>
       <c r="C118" s="1"/>
     </row>
     <row r="119" spans="2:3">
-      <c r="B119" s="12"/>
+      <c r="B119" s="9"/>
       <c r="C119" s="1"/>
     </row>
     <row r="120" spans="2:3">
-      <c r="B120" s="12"/>
+      <c r="B120" s="9"/>
       <c r="C120" s="1"/>
     </row>
     <row r="121" spans="2:3">
-      <c r="B121" s="12"/>
+      <c r="B121" s="9"/>
       <c r="C121" s="1"/>
     </row>
     <row r="122" spans="2:3">
-      <c r="B122" s="12"/>
+      <c r="B122" s="9"/>
       <c r="C122" s="1"/>
     </row>
     <row r="123" spans="2:3">
-      <c r="B123" s="12"/>
+      <c r="B123" s="9"/>
       <c r="C123" s="1"/>
     </row>
     <row r="124" spans="2:3">
-      <c r="B124" s="12"/>
+      <c r="B124" s="9"/>
       <c r="C124" s="1"/>
     </row>
     <row r="125" spans="2:3">
-      <c r="B125" s="12"/>
+      <c r="B125" s="9"/>
       <c r="C125" s="1"/>
     </row>
     <row r="126" spans="2:3">
-      <c r="B126" s="12"/>
+      <c r="B126" s="9"/>
       <c r="C126" s="1"/>
     </row>
     <row r="127" spans="2:3">
-      <c r="B127" s="12"/>
+      <c r="B127" s="9"/>
       <c r="C127" s="1"/>
     </row>
     <row r="128" spans="2:3">
-      <c r="B128" s="12"/>
+      <c r="B128" s="9"/>
       <c r="C128" s="1"/>
     </row>
     <row r="129" spans="2:3">
-      <c r="B129" s="12"/>
+      <c r="B129" s="9"/>
       <c r="C129" s="1"/>
     </row>
     <row r="130" spans="2:3">
-      <c r="B130" s="12"/>
+      <c r="B130" s="9"/>
       <c r="C130" s="1"/>
     </row>
     <row r="131" spans="2:3">
-      <c r="B131" s="12"/>
+      <c r="B131" s="9"/>
       <c r="C131" s="1"/>
     </row>
     <row r="132" spans="2:3">
-      <c r="B132" s="12"/>
+      <c r="B132" s="9"/>
       <c r="C132" s="1"/>
     </row>
     <row r="133" spans="2:3">
-      <c r="B133" s="12"/>
+      <c r="B133" s="9"/>
       <c r="C133" s="1"/>
     </row>
     <row r="134" spans="2:3">
-      <c r="B134" s="12"/>
+      <c r="B134" s="9"/>
       <c r="C134" s="1"/>
     </row>
     <row r="135" spans="2:3">
-      <c r="B135" s="12"/>
+      <c r="B135" s="9"/>
       <c r="C135" s="1"/>
     </row>
     <row r="136" spans="2:3">
-      <c r="B136" s="12"/>
+      <c r="B136" s="9"/>
       <c r="C136" s="1"/>
     </row>
     <row r="137" spans="2:3">
-      <c r="B137" s="12"/>
+      <c r="B137" s="9"/>
       <c r="C137" s="1"/>
     </row>
     <row r="138" spans="2:3">
-      <c r="B138" s="12"/>
+      <c r="B138" s="9"/>
       <c r="C138" s="1"/>
     </row>
     <row r="139" spans="2:3">
-      <c r="B139" s="12"/>
+      <c r="B139" s="9"/>
       <c r="C139" s="1"/>
     </row>
     <row r="140" spans="2:3">
-      <c r="B140" s="12"/>
+      <c r="B140" s="9"/>
       <c r="C140" s="1"/>
     </row>
     <row r="141" spans="2:3">
-      <c r="B141" s="12"/>
+      <c r="B141" s="9"/>
       <c r="C141" s="1"/>
     </row>
     <row r="142" spans="2:3">
-      <c r="B142" s="12"/>
+      <c r="B142" s="9"/>
       <c r="C142" s="1"/>
     </row>
     <row r="143" spans="2:3">
-      <c r="B143" s="12"/>
+      <c r="B143" s="9"/>
       <c r="C143" s="1"/>
     </row>
     <row r="144" spans="2:3">
-      <c r="B144" s="12"/>
+      <c r="B144" s="9"/>
       <c r="C144" s="1"/>
     </row>
     <row r="145" spans="2:3">
-      <c r="B145" s="12"/>
+      <c r="B145" s="9"/>
       <c r="C145" s="1"/>
     </row>
     <row r="146" spans="2:3">
-      <c r="B146" s="12"/>
+      <c r="B146" s="9"/>
       <c r="C146" s="1"/>
     </row>
     <row r="147" spans="2:3">
-      <c r="B147" s="12"/>
+      <c r="B147" s="9"/>
       <c r="C147" s="1"/>
     </row>
     <row r="148" spans="2:3">
-      <c r="B148" s="12"/>
+      <c r="B148" s="9"/>
       <c r="C148" s="1"/>
     </row>
     <row r="149" spans="2:3">
-      <c r="B149" s="12"/>
+      <c r="B149" s="9"/>
       <c r="C149" s="1"/>
     </row>
     <row r="150" spans="2:3">
-      <c r="B150" s="12"/>
+      <c r="B150" s="9"/>
       <c r="C150" s="1"/>
     </row>
     <row r="151" spans="2:3">
-      <c r="B151" s="12"/>
+      <c r="B151" s="9"/>
       <c r="C151" s="1"/>
     </row>
     <row r="152" spans="2:3">
-      <c r="B152" s="12"/>
+      <c r="B152" s="9"/>
       <c r="C152" s="1"/>
     </row>
     <row r="153" spans="2:3">
-      <c r="B153" s="12"/>
+      <c r="B153" s="9"/>
       <c r="C153" s="1"/>
     </row>
     <row r="154" spans="2:3">
-      <c r="B154" s="12"/>
+      <c r="B154" s="9"/>
       <c r="C154" s="1"/>
     </row>
     <row r="155" spans="2:3">
-      <c r="B155" s="12"/>
+      <c r="B155" s="9"/>
       <c r="C155" s="1"/>
     </row>
     <row r="156" spans="2:3">
-      <c r="B156" s="12"/>
+      <c r="B156" s="9"/>
       <c r="C156" s="1"/>
     </row>
     <row r="157" spans="2:3">
-      <c r="B157" s="12"/>
+      <c r="B157" s="9"/>
       <c r="C157" s="1"/>
     </row>
     <row r="158" spans="2:3">
-      <c r="B158" s="12"/>
+      <c r="B158" s="9"/>
       <c r="C158" s="1"/>
     </row>
     <row r="159" spans="2:3">
-      <c r="B159" s="12"/>
+      <c r="B159" s="9"/>
       <c r="C159" s="1"/>
     </row>
     <row r="160" spans="2:3">
-      <c r="B160" s="12"/>
+      <c r="B160" s="9"/>
       <c r="C160" s="1"/>
     </row>
     <row r="161" spans="2:3">
-      <c r="B161" s="12"/>
+      <c r="B161" s="9"/>
       <c r="C161" s="1"/>
     </row>
     <row r="162" spans="2:3">
-      <c r="B162" s="12"/>
+      <c r="B162" s="9"/>
       <c r="C162" s="1"/>
     </row>
     <row r="163" spans="2:3">
-      <c r="B163" s="12"/>
+      <c r="B163" s="9"/>
       <c r="C163" s="1"/>
     </row>
     <row r="164" spans="2:3">
-      <c r="B164" s="12"/>
+      <c r="B164" s="9"/>
       <c r="C164" s="1"/>
     </row>
     <row r="165" spans="2:3">
-      <c r="B165" s="12"/>
+      <c r="B165" s="9"/>
       <c r="C165" s="1"/>
     </row>
     <row r="166" spans="2:3">
-      <c r="B166" s="12"/>
+      <c r="B166" s="9"/>
       <c r="C166" s="1"/>
     </row>
     <row r="167" spans="2:3">
-      <c r="B167" s="12"/>
+      <c r="B167" s="9"/>
       <c r="C167" s="1"/>
     </row>
     <row r="168" spans="2:3">
-      <c r="B168" s="12"/>
+      <c r="B168" s="9"/>
       <c r="C168" s="1"/>
     </row>
     <row r="169" spans="2:3">
-      <c r="B169" s="12"/>
+      <c r="B169" s="9"/>
       <c r="C169" s="1"/>
     </row>
     <row r="170" spans="2:3">
-      <c r="B170" s="12"/>
+      <c r="B170" s="9"/>
       <c r="C170" s="1"/>
     </row>
     <row r="171" spans="2:3">
-      <c r="B171" s="12"/>
+      <c r="B171" s="9"/>
       <c r="C171" s="1"/>
     </row>
     <row r="172" spans="2:3">
-      <c r="B172" s="12"/>
+      <c r="B172" s="9"/>
       <c r="C172" s="1"/>
     </row>
     <row r="173" spans="2:3">
-      <c r="B173" s="12"/>
+      <c r="B173" s="9"/>
       <c r="C173" s="1"/>
     </row>
     <row r="174" spans="2:3">
-      <c r="B174" s="12"/>
+      <c r="B174" s="9"/>
       <c r="C174" s="1"/>
     </row>
     <row r="175" spans="2:3">
-      <c r="B175" s="12"/>
+      <c r="B175" s="9"/>
       <c r="C175" s="1"/>
     </row>
     <row r="176" spans="2:3">
-      <c r="B176" s="12"/>
+      <c r="B176" s="9"/>
       <c r="C176" s="1"/>
     </row>
     <row r="177" spans="2:3">
-      <c r="B177" s="12"/>
+      <c r="B177" s="9"/>
       <c r="C177" s="1"/>
     </row>
     <row r="178" spans="2:3">
-      <c r="B178" s="12"/>
+      <c r="B178" s="9"/>
       <c r="C178" s="1"/>
     </row>
     <row r="179" spans="2:3">
-      <c r="B179" s="12"/>
+      <c r="B179" s="9"/>
       <c r="C179" s="1"/>
     </row>
     <row r="180" spans="2:3">
-      <c r="B180" s="12"/>
+      <c r="B180" s="9"/>
       <c r="C180" s="1"/>
     </row>
     <row r="181" spans="2:3">
-      <c r="B181" s="12"/>
+      <c r="B181" s="9"/>
       <c r="C181" s="1"/>
     </row>
     <row r="182" spans="2:3">
-      <c r="B182" s="12"/>
+      <c r="B182" s="9"/>
       <c r="C182" s="1"/>
     </row>
     <row r="183" spans="2:3">
-      <c r="B183" s="12"/>
+      <c r="B183" s="9"/>
       <c r="C183" s="1"/>
     </row>
     <row r="184" spans="2:3">
-      <c r="B184" s="12"/>
+      <c r="B184" s="9"/>
       <c r="C184" s="1"/>
     </row>
     <row r="185" spans="2:3">
-      <c r="B185" s="12"/>
+      <c r="B185" s="9"/>
       <c r="C185" s="1"/>
     </row>
     <row r="186" spans="2:3">
-      <c r="B186" s="12"/>
+      <c r="B186" s="9"/>
       <c r="C186" s="1"/>
     </row>
     <row r="187" spans="2:3">
-      <c r="B187" s="12"/>
+      <c r="B187" s="9"/>
       <c r="C187" s="1"/>
     </row>
     <row r="188" spans="2:3">
-      <c r="B188" s="12"/>
+      <c r="B188" s="9"/>
       <c r="C188" s="1"/>
     </row>
     <row r="189" spans="2:3">
-      <c r="B189" s="12"/>
+      <c r="B189" s="9"/>
       <c r="C189" s="1"/>
     </row>
     <row r="190" spans="2:3">
-      <c r="B190" s="12"/>
+      <c r="B190" s="9"/>
       <c r="C190" s="1"/>
     </row>
     <row r="191" spans="2:3">
-      <c r="B191" s="12"/>
+      <c r="B191" s="9"/>
       <c r="C191" s="1"/>
     </row>
     <row r="192" spans="2:3">
-      <c r="B192" s="12"/>
+      <c r="B192" s="9"/>
       <c r="C192" s="1"/>
     </row>
     <row r="193" spans="2:3">
-      <c r="B193" s="12"/>
+      <c r="B193" s="9"/>
       <c r="C193" s="1"/>
     </row>
     <row r="194" spans="2:3">
-      <c r="B194" s="12"/>
+      <c r="B194" s="9"/>
       <c r="C194" s="1"/>
     </row>
     <row r="195" spans="2:3">
-      <c r="B195" s="12"/>
+      <c r="B195" s="9"/>
       <c r="C195" s="1"/>
     </row>
     <row r="196" spans="2:3">
-      <c r="B196" s="12"/>
+      <c r="B196" s="9"/>
       <c r="C196" s="1"/>
     </row>
     <row r="197" spans="2:3">
-      <c r="B197" s="12"/>
+      <c r="B197" s="9"/>
       <c r="C197" s="1"/>
     </row>
     <row r="198" spans="2:3">
-      <c r="B198" s="12"/>
+      <c r="B198" s="9"/>
       <c r="C198" s="1"/>
     </row>
     <row r="199" spans="2:3">
-      <c r="B199" s="12"/>
+      <c r="B199" s="9"/>
       <c r="C199" s="1"/>
     </row>
     <row r="200" spans="2:3">
-      <c r="B200" s="12"/>
+      <c r="B200" s="9"/>
       <c r="C200" s="1"/>
     </row>
     <row r="201" spans="2:3">
-      <c r="B201" s="12"/>
+      <c r="B201" s="9"/>
       <c r="C201" s="1"/>
     </row>
     <row r="202" spans="2:3">
-      <c r="B202" s="12"/>
+      <c r="B202" s="9"/>
       <c r="C202" s="1"/>
     </row>
     <row r="203" spans="2:3">
-      <c r="B203" s="12"/>
+      <c r="B203" s="9"/>
       <c r="C203" s="1"/>
     </row>
     <row r="204" spans="2:3">
-      <c r="B204" s="12"/>
+      <c r="B204" s="9"/>
       <c r="C204" s="1"/>
     </row>
     <row r="205" spans="2:3">
-      <c r="B205" s="12"/>
+      <c r="B205" s="9"/>
       <c r="C205" s="1"/>
     </row>
     <row r="206" spans="2:3">
-      <c r="B206" s="12"/>
+      <c r="B206" s="9"/>
       <c r="C206" s="1"/>
     </row>
     <row r="207" spans="2:3">
-      <c r="B207" s="12"/>
+      <c r="B207" s="9"/>
       <c r="C207" s="1"/>
     </row>
     <row r="208" spans="2:3">
-      <c r="B208" s="12"/>
+      <c r="B208" s="9"/>
       <c r="C208" s="1"/>
     </row>
     <row r="209" spans="2:3">
-      <c r="B209" s="12"/>
+      <c r="B209" s="9"/>
       <c r="C209" s="1"/>
     </row>
     <row r="210" spans="2:3">
-      <c r="B210" s="12"/>
+      <c r="B210" s="9"/>
       <c r="C210" s="1"/>
     </row>
     <row r="211" spans="2:3">
-      <c r="B211" s="12"/>
+      <c r="B211" s="9"/>
       <c r="C211" s="1"/>
     </row>
     <row r="212" spans="2:3">
-      <c r="B212" s="12"/>
+      <c r="B212" s="9"/>
       <c r="C212" s="1"/>
     </row>
     <row r="213" spans="2:3">
-      <c r="B213" s="12"/>
+      <c r="B213" s="9"/>
       <c r="C213" s="1"/>
     </row>
     <row r="214" spans="2:3">
-      <c r="B214" s="12"/>
+      <c r="B214" s="9"/>
       <c r="C214" s="1"/>
     </row>
     <row r="215" spans="2:3">
-      <c r="B215" s="12"/>
+      <c r="B215" s="9"/>
       <c r="C215" s="1"/>
     </row>
     <row r="216" spans="2:3">
-      <c r="B216" s="12"/>
+      <c r="B216" s="9"/>
       <c r="C216" s="1"/>
     </row>
     <row r="217" spans="2:3">
-      <c r="B217" s="12"/>
+      <c r="B217" s="9"/>
       <c r="C217" s="1"/>
     </row>
     <row r="218" spans="2:3">
-      <c r="B218" s="12"/>
+      <c r="B218" s="9"/>
       <c r="C218" s="1"/>
     </row>
     <row r="219" spans="2:3">
-      <c r="B219" s="12"/>
+      <c r="B219" s="9"/>
       <c r="C219" s="1"/>
     </row>
     <row r="220" spans="2:3">
-      <c r="B220" s="12"/>
+      <c r="B220" s="9"/>
       <c r="C220" s="1"/>
     </row>
     <row r="221" spans="2:3">
-      <c r="B221" s="12"/>
+      <c r="B221" s="9"/>
       <c r="C221" s="1"/>
     </row>
     <row r="222" spans="2:3">
-      <c r="B222" s="12"/>
+      <c r="B222" s="9"/>
       <c r="C222" s="1"/>
     </row>
     <row r="223" spans="2:3">
-      <c r="B223" s="12"/>
+      <c r="B223" s="9"/>
       <c r="C223" s="1"/>
     </row>
     <row r="224" spans="2:3">
-      <c r="B224" s="12"/>
+      <c r="B224" s="9"/>
       <c r="C224" s="1"/>
     </row>
     <row r="225" spans="2:3">
-      <c r="B225" s="12"/>
+      <c r="B225" s="9"/>
       <c r="C225" s="1"/>
     </row>
     <row r="226" spans="2:3">
-      <c r="B226" s="12"/>
+      <c r="B226" s="9"/>
       <c r="C226" s="1"/>
     </row>
     <row r="227" spans="2:3">
-      <c r="B227" s="12"/>
+      <c r="B227" s="9"/>
       <c r="C227" s="1"/>
     </row>
     <row r="228" spans="2:3">
-      <c r="B228" s="12"/>
+      <c r="B228" s="9"/>
       <c r="C228" s="1"/>
     </row>
     <row r="229" spans="2:3">
-      <c r="B229" s="12"/>
+      <c r="B229" s="9"/>
       <c r="C229" s="1"/>
     </row>
     <row r="230" spans="2:3">
-      <c r="B230" s="12"/>
+      <c r="B230" s="9"/>
       <c r="C230" s="1"/>
     </row>
     <row r="231" spans="2:3">
-      <c r="B231" s="12"/>
+      <c r="B231" s="9"/>
       <c r="C231" s="1"/>
     </row>
     <row r="232" spans="2:3">
-      <c r="B232" s="12"/>
+      <c r="B232" s="9"/>
       <c r="C232" s="1"/>
     </row>
     <row r="233" spans="2:3">
-      <c r="B233" s="12"/>
+      <c r="B233" s="9"/>
       <c r="C233" s="1"/>
     </row>
     <row r="234" spans="2:3">
-      <c r="B234" s="12"/>
+      <c r="B234" s="9"/>
       <c r="C234" s="1"/>
     </row>
     <row r="235" spans="2:3">
-      <c r="B235" s="12"/>
+      <c r="B235" s="9"/>
       <c r="C235" s="1"/>
     </row>
     <row r="236" spans="2:3">
-      <c r="B236" s="12"/>
+      <c r="B236" s="9"/>
       <c r="C236" s="1"/>
     </row>
     <row r="237" spans="2:3">
-      <c r="B237" s="12"/>
+      <c r="B237" s="9"/>
       <c r="C237" s="1"/>
     </row>
   </sheetData>
